--- a/Bases de datos/clean/dic_arg_proy_205_2018.xlsx
+++ b/Bases de datos/clean/dic_arg_proy_205_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Procesamiento-R\Bases de datos\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BF6E3-CA78-4958-9624-588958453FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1A132-85FC-481E-ABC2-E4804F75224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>variable</t>
   </si>
@@ -43,7 +43,16 @@
     <t>factor</t>
   </si>
   <si>
-    <t>2001, 2005, 2010, 2013, 2018</t>
+    <t>2005, 2010, 2013, 2018</t>
+  </si>
+  <si>
+    <t>anio_enfr</t>
+  </si>
+  <si>
+    <t>Año de realización ENFR</t>
+  </si>
+  <si>
+    <t>2005, 2009, 2013, 2018</t>
   </si>
   <si>
     <t>prov_id</t>
@@ -71,6 +80,15 @@
   </si>
   <si>
     <t>20 a 24, 25 a 29, 30 a 34, 35 a 39, 40 a 44, 45 a 49, 50 a 54, 55 a 59, 60 a 64, 65 a 69, 70 a 74, 75 a 79, 80+</t>
+  </si>
+  <si>
+    <t>grupo_edad_10</t>
+  </si>
+  <si>
+    <t>Grupo edad decenal</t>
+  </si>
+  <si>
+    <t>20 a 29, 30 a 39, 40 a 49, 50 a 59, 60 a 69, 70 a 79, 80+</t>
   </si>
   <si>
     <t>sexo</t>
@@ -450,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -461,10 +479,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="229" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="229" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -559,10 +577,38 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
